--- a/doc/alice/教练财务/2018年2月训练营业绩清单 - 副本.xlsx
+++ b/doc/alice/教练财务/2018年2月训练营业绩清单 - 副本.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="大热俱乐部" sheetId="11" r:id="rId1"/>
     <sheet name="AKcross训练营（28）" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大热俱乐部!$A$1:$N$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>教练姓名</t>
   </si>
@@ -236,7 +236,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="6" tint="-0.25"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -263,7 +263,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="6" tint="-0.25"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -299,7 +299,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="6" tint="-0.25"/>
+        <color theme="6" tint="-0.249977111117893"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
@@ -383,15 +383,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,153 +478,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -637,12 +489,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="6" tint="-0.25"/>
+      <color theme="6" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,194 +513,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="30">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1115,255 +787,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1373,12 +803,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,214 +839,179 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1913,482 +1302,482 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="5" tint="0.599993896298105"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="9.73333333333333" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="5.4" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
     <col min="6" max="6" width="33.875" customWidth="1"/>
     <col min="7" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.4" customWidth="1"/>
-    <col min="12" max="12" width="11.8666666666667"/>
-    <col min="13" max="13" width="10.4"/>
-    <col min="14" max="14" width="10.4666666666667" customWidth="1"/>
-    <col min="15" max="15" width="10.6" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875"/>
+    <col min="13" max="13" width="10.375"/>
+    <col min="14" max="14" width="10.5" customWidth="1"/>
+    <col min="15" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:14">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="63"/>
-      <c r="K1" s="64"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
-      <c r="A2" s="38" t="s">
+      <c r="J1" s="50"/>
+      <c r="K1" s="51"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="40">
-        <v>43141.6666666667</v>
-      </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="34">
+        <v>43141.666666666701</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="42">
+      <c r="E2" s="36">
         <v>5</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="38">
         <f>E2*100</f>
         <v>500</v>
       </c>
-      <c r="H2" s="45">
+      <c r="H2" s="39">
         <v>300</v>
       </c>
-      <c r="I2" s="65"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A3" s="46" t="s">
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42">
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36">
         <v>2</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="38">
         <f>E3*100</f>
         <v>200</v>
       </c>
-      <c r="H3" s="45">
+      <c r="H3" s="39">
         <v>50</v>
       </c>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="52" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48">
-        <v>43133.7916666667</v>
-      </c>
-      <c r="D4" s="49" t="s">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="59"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="40">
+        <v>43133.791666666701</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="49">
+      <c r="E4" s="41">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="15">
         <f>E4*100</f>
         <v>400</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="42">
         <f>100+25*E4</f>
         <v>200</v>
       </c>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A5" s="38"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="48">
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="60"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="40">
         <v>43134.4375</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="41">
         <v>3</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="15">
         <f>E5*100</f>
         <v>300</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="42">
         <f>100+25*E5</f>
         <v>175</v>
       </c>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A6" s="52" t="s">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="48">
-        <v>43114.7083333333</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="40">
+        <v>43114.708333333299</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="41">
         <v>5</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="15">
         <f t="shared" ref="G6:G14" si="0">E6*100</f>
         <v>500</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="42">
         <f t="shared" ref="H6:H14" si="1">100+25*E6</f>
         <v>225</v>
       </c>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48">
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="40">
         <v>43132.375</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="41">
         <v>3</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="55">
+      <c r="G7" s="45">
         <v>300</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="42">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="48">
-        <v>43132.7083333333</v>
-      </c>
-      <c r="D8" s="49" t="s">
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="40">
+        <v>43132.708333333299</v>
+      </c>
+      <c r="D8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="41">
         <v>4</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="45">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="42">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="48">
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="40">
         <v>43133.375</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="41">
         <v>3</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="45">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="42">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="48">
-        <v>43133.7083333333</v>
-      </c>
-      <c r="D10" s="49" t="s">
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="40">
+        <v>43133.708333333299</v>
+      </c>
+      <c r="D10" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <v>4</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="45">
         <v>400</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="42">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A11" s="52" t="s">
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="48">
-        <v>43141.6666666667</v>
-      </c>
-      <c r="D11" s="56" t="s">
+      <c r="C11" s="40">
+        <v>43141.666666666701</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="41">
         <v>5</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H11" s="50">
+      <c r="H11" s="42">
         <v>300</v>
       </c>
-      <c r="I11" s="66"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="61"/>
+      <c r="B12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="48">
-        <v>43133.3333333333</v>
-      </c>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="40">
+        <v>43133.333333333299</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="41">
         <v>4</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="15">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="42">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="48">
-        <v>43135.3541666667</v>
-      </c>
-      <c r="D13" s="49" t="s">
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="61"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="40">
+        <v>43135.354166666701</v>
+      </c>
+      <c r="D13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="41">
         <v>5</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="15">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="42">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="48">
-        <v>43136.3541666667</v>
-      </c>
-      <c r="D14" s="49" t="s">
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="61"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="40">
+        <v>43136.354166666701</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="41">
         <v>4</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="15">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H14" s="50">
+      <c r="H14" s="42">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="17.25" spans="1:10">
-      <c r="A15" s="57" t="s">
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="16.5">
+      <c r="A15" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="47">
         <f>SUM(E2:E14)</f>
         <v>51</v>
       </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="60">
+      <c r="F15" s="48"/>
+      <c r="G15" s="47">
         <f>SUM(G2:G14)</f>
         <v>5100</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="49">
         <f>SUM(H2:H14)</f>
         <v>2625</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="68"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="21" customHeight="1" spans="6:7">
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="6:7">
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" ht="16.5" spans="6:9">
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="I18" s="31"/>
-    </row>
-    <row r="19" ht="16.5" spans="6:9">
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="I19" s="31"/>
-    </row>
-    <row r="20" ht="16.5" spans="6:9">
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" ht="16.5" spans="6:9">
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" ht="16.5" spans="6:9">
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="I22" s="31"/>
-    </row>
-    <row r="23" ht="16.5" spans="9:9">
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" ht="16.5" spans="9:9">
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" ht="16.5" spans="9:9">
-      <c r="I25" s="31"/>
-    </row>
-    <row r="26" ht="16.5" spans="9:9">
-      <c r="I26" s="31"/>
-    </row>
-    <row r="27" ht="18" spans="9:9">
-      <c r="I27" s="35"/>
-    </row>
-    <row r="28" spans="9:9">
-      <c r="I28" s="36"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="55"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="6:9" s="2" customFormat="1" ht="16.5">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+    </row>
+    <row r="18" spans="6:9" ht="16.5">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="6:9" ht="16.5">
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="6:9" ht="16.5">
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="6:9" ht="16.5">
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="6:9" ht="16.5">
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="6:9" ht="16.5">
+      <c r="I23" s="25"/>
+    </row>
+    <row r="24" spans="6:9" ht="16.5">
+      <c r="I24" s="25"/>
+    </row>
+    <row r="25" spans="6:9" ht="16.5">
+      <c r="I25" s="25"/>
+    </row>
+    <row r="26" spans="6:9" ht="16.5">
+      <c r="I26" s="25"/>
+    </row>
+    <row r="27" spans="6:9" ht="18">
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="I28" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N15">
@@ -2403,235 +1792,235 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="B12:B14"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor theme="5" tint="0.599993896298105"/>
+    <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="45.625" customWidth="1"/>
-    <col min="6" max="6" width="17.4666666666667" customWidth="1"/>
-    <col min="7" max="7" width="10.4"/>
-    <col min="8" max="8" width="10.4666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.6" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="10.375"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="9" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>43159.71875</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <v>7</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:8">
-      <c r="A4" s="17" t="s">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A4" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="12">
-        <v>43134.3541666667</v>
-      </c>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="10">
+        <v>43134.354166666701</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="12">
-        <v>43137.3333333333</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="F4" s="14"/>
+      <c r="H4" s="17"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="70"/>
+      <c r="B5" s="10">
+        <v>43137.333333333299</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <v>3</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="21"/>
-      <c r="B6" s="12">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="70"/>
+      <c r="B6" s="10">
         <v>43155.625</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <v>5</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A7" s="21" t="s">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="12">
-        <v>43134.4166666667</v>
-      </c>
-      <c r="C7" s="18" t="s">
+      <c r="B7" s="10">
+        <v>43134.416666666701</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="17" customHeight="1" spans="1:6">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12">
-        <v>43132.4166666667</v>
-      </c>
-      <c r="C8" s="18" t="s">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="70"/>
+      <c r="B8" s="10">
+        <v>43132.416666666701</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>3</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A9" s="24" t="s">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="16.5">
+      <c r="A9" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="6">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="4">
         <f>SUM(D3:D8)</f>
         <v>23</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="21" customHeight="1" spans="5:5">
-      <c r="E10" s="28" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E10" s="22" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="5:5">
-      <c r="E11" s="29" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="16.5">
+      <c r="E11" s="23" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="5:6">
-      <c r="E12" s="30" t="s">
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="E12" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" ht="16.5" spans="5:6">
-      <c r="E13" s="32" t="s">
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="E13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" ht="16.5" spans="5:6">
-      <c r="E14" s="33"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" ht="16.5" spans="5:6">
-      <c r="E15" s="34"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="16.5" spans="5:6">
-      <c r="E16" s="34"/>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" ht="16.5" spans="6:6">
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" ht="16.5" spans="6:6">
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" ht="16.5" spans="6:6">
-      <c r="F19" s="31"/>
-    </row>
-    <row r="20" ht="16.5" spans="6:6">
-      <c r="F20" s="31"/>
-    </row>
-    <row r="21" ht="18" spans="6:6">
-      <c r="F21" s="35"/>
+      <c r="F13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5">
+      <c r="E15" s="28"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
+    </row>
+    <row r="17" spans="6:6" ht="16.5">
+      <c r="F17" s="25"/>
+    </row>
+    <row r="18" spans="6:6" ht="16.5">
+      <c r="F18" s="25"/>
+    </row>
+    <row r="19" spans="6:6" ht="16.5">
+      <c r="F19" s="25"/>
+    </row>
+    <row r="20" spans="6:6" ht="16.5">
+      <c r="F20" s="25"/>
+    </row>
+    <row r="21" spans="6:6" ht="18">
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6">
-      <c r="F22" s="36"/>
+      <c r="F22" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F14">
@@ -2643,7 +2032,7 @@
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>